--- a/TestData/T1644_FEISFormSubmitforReview.xlsx
+++ b/TestData/T1644_FEISFormSubmitforReview.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal0427\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EEB979-704A-4897-8A46-4C3F3A04D2AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13170" windowHeight="5550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -23,6 +22,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -297,13 +304,13 @@
     <t>Danielle Morello</t>
   </si>
   <si>
-    <t>10000</t>
+    <t>10000.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -654,11 +661,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -902,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -978,11 +985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/T1644_FEISFormSubmitforReview.xlsx
+++ b/TestData/T1644_FEISFormSubmitforReview.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EEB979-704A-4897-8A46-4C3F3A04D2AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13170" windowHeight="5550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -22,14 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -304,13 +297,13 @@
     <t>Danielle Morello</t>
   </si>
   <si>
-    <t>10000.0</t>
+    <t>10000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -661,11 +654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -909,7 +902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -985,11 +978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
